--- a/Input/MATSimInputComplete.xlsx
+++ b/Input/MATSimInputComplete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E12283-C401-441C-B835-1E3291561659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433ED755-B450-4A9E-A68F-95F6513F3C32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="4305" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" tabRatio="813" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3258,31 +3267,31 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>100000</v>
       </c>
@@ -3388,7 +3397,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
@@ -3403,20 +3412,20 @@
   </sheetPr>
   <dimension ref="A1:H584"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="9"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>-9.9920072216264108E-16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>2.499999999999945E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>4.9999999999999503E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>7.4999999999999498E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3571,7 +3580,7 @@
         <v>9.9999999999999506E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3592,7 +3601,7 @@
         <v>0.1249999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3613,7 +3622,7 @@
         <v>0.14999999999999949</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3634,7 +3643,7 @@
         <v>0.17499999999999949</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3655,7 +3664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3676,7 +3685,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3697,7 +3706,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3718,7 +3727,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3739,7 +3748,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3760,7 +3769,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3781,7 +3790,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3802,7 +3811,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3823,7 +3832,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3844,7 +3853,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3865,7 +3874,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3886,7 +3895,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3907,7 +3916,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3917,7 +3926,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3927,7 +3936,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3937,7 +3946,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3947,7 +3956,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -3957,7 +3966,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3967,7 +3976,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -3977,7 +3986,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3987,7 +3996,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -3997,7 +4006,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4007,7 +4016,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="9"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -4015,2766 +4024,2766 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="9"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="9"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="9"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="9"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" s="9"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" s="9"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="9"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" s="9"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" s="9"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C45" s="9"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" s="9"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C47" s="9"/>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" s="9"/>
       <c r="D48" s="12"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="9"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="9"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="9"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="9"/>
       <c r="D52" s="12"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="9"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="9"/>
       <c r="D54" s="14"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="9"/>
       <c r="D55" s="14"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="9"/>
       <c r="D56" s="14"/>
       <c r="E56" s="13"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="9"/>
       <c r="D57" s="14"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="9"/>
       <c r="D58" s="14"/>
       <c r="E58" s="13"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="9"/>
       <c r="D59" s="14"/>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="9"/>
       <c r="D60" s="14"/>
       <c r="E60" s="13"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" s="9"/>
       <c r="D61" s="14"/>
       <c r="E61" s="13"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="9"/>
       <c r="D62" s="14"/>
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" s="9"/>
       <c r="D63" s="14"/>
       <c r="E63" s="13"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" s="9"/>
       <c r="D64" s="14"/>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" s="9"/>
       <c r="D65" s="14"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" s="9"/>
       <c r="D66" s="14"/>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" s="9"/>
       <c r="D67" s="14"/>
       <c r="E67" s="13"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" s="9"/>
       <c r="D68" s="14"/>
       <c r="E68" s="13"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69" s="9"/>
       <c r="D69" s="14"/>
       <c r="E69" s="13"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C70" s="9"/>
       <c r="D70" s="14"/>
       <c r="E70" s="13"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C71" s="9"/>
       <c r="D71" s="14"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="9"/>
       <c r="D72" s="14"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73" s="9"/>
       <c r="D73" s="14"/>
       <c r="E73" s="13"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C74" s="9"/>
       <c r="D74" s="14"/>
       <c r="E74" s="13"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" s="9"/>
       <c r="D75" s="14"/>
       <c r="E75" s="13"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76" s="9"/>
       <c r="D76" s="14"/>
       <c r="E76" s="13"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" s="9"/>
       <c r="D77" s="14"/>
       <c r="E77" s="13"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C78" s="9"/>
       <c r="D78" s="14"/>
       <c r="E78" s="13"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C79" s="9"/>
       <c r="D79" s="14"/>
       <c r="E79" s="13"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C80" s="9"/>
       <c r="D80" s="14"/>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81" s="9"/>
       <c r="D81" s="14"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" s="9"/>
       <c r="D82" s="14"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83" s="9"/>
       <c r="D83" s="14"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" s="9"/>
       <c r="D84" s="14"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C85" s="9"/>
       <c r="D85" s="14"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" s="9"/>
       <c r="D86" s="14"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87" s="9"/>
       <c r="D87" s="14"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88" s="9"/>
       <c r="D88" s="14"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89" s="9"/>
       <c r="D89" s="14"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C90" s="9"/>
       <c r="D90" s="14"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C91" s="9"/>
       <c r="D91" s="14"/>
       <c r="E91" s="13"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C92" s="9"/>
       <c r="D92" s="14"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C93" s="9"/>
       <c r="D93" s="14"/>
       <c r="E93" s="13"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C94" s="9"/>
       <c r="D94" s="14"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95" s="9"/>
       <c r="D95" s="14"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96" s="9"/>
       <c r="D96" s="14"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97" s="9"/>
       <c r="D97" s="14"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98" s="9"/>
       <c r="D98" s="14"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C99" s="9"/>
       <c r="D99" s="14"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
       <c r="D100" s="14"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101" s="9"/>
       <c r="D101" s="14"/>
       <c r="E101" s="13"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C102" s="9"/>
       <c r="D102" s="14"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C103" s="9"/>
       <c r="D103" s="14"/>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C104" s="9"/>
       <c r="D104" s="14"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C105" s="9"/>
       <c r="D105" s="14"/>
       <c r="E105" s="13"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C106" s="9"/>
       <c r="D106" s="14"/>
       <c r="E106" s="13"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C107" s="9"/>
       <c r="D107" s="14"/>
       <c r="E107" s="13"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C108" s="9"/>
       <c r="D108" s="14"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C109" s="9"/>
       <c r="D109" s="14"/>
       <c r="E109" s="13"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C110" s="9"/>
       <c r="D110" s="14"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C111" s="9"/>
       <c r="D111" s="14"/>
       <c r="E111" s="13"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C112" s="9"/>
       <c r="D112" s="14"/>
       <c r="E112" s="13"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C113" s="9"/>
       <c r="D113" s="14"/>
       <c r="E113" s="13"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114" s="9"/>
       <c r="D114" s="14"/>
       <c r="E114" s="13"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
       <c r="E115" s="13"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116" s="9"/>
       <c r="D116" s="14"/>
       <c r="E116" s="13"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C117" s="9"/>
       <c r="D117" s="14"/>
       <c r="E117" s="13"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118" s="9"/>
       <c r="D118" s="14"/>
       <c r="E118" s="13"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119" s="9"/>
       <c r="D119" s="14"/>
       <c r="E119" s="13"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120" s="9"/>
       <c r="D120" s="14"/>
       <c r="E120" s="13"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121" s="9"/>
       <c r="D121" s="14"/>
       <c r="E121" s="13"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="9"/>
       <c r="D122" s="14"/>
       <c r="E122" s="13"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C123" s="9"/>
       <c r="D123" s="14"/>
       <c r="E123" s="13"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C124" s="9"/>
       <c r="D124" s="14"/>
       <c r="E124" s="13"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C125" s="9"/>
       <c r="D125" s="14"/>
       <c r="E125" s="13"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126" s="9"/>
       <c r="D126" s="14"/>
       <c r="E126" s="13"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127" s="9"/>
       <c r="D127" s="14"/>
       <c r="E127" s="13"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128" s="9"/>
       <c r="D128" s="14"/>
       <c r="E128" s="13"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" s="9"/>
       <c r="D129" s="14"/>
       <c r="E129" s="13"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" s="9"/>
       <c r="D130" s="14"/>
       <c r="E130" s="13"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" s="9"/>
       <c r="D131" s="14"/>
       <c r="E131" s="13"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" s="9"/>
       <c r="D132" s="14"/>
       <c r="E132" s="13"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133" s="9"/>
       <c r="D133" s="14"/>
       <c r="E133" s="13"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C134" s="9"/>
       <c r="D134" s="14"/>
       <c r="E134" s="13"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C135" s="9"/>
       <c r="D135" s="14"/>
       <c r="E135" s="13"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136" s="9"/>
       <c r="D136" s="14"/>
       <c r="E136" s="13"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C137" s="9"/>
       <c r="D137" s="14"/>
       <c r="E137" s="13"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C138" s="9"/>
       <c r="D138" s="14"/>
       <c r="E138" s="13"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C139" s="9"/>
       <c r="D139" s="14"/>
       <c r="E139" s="13"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C140" s="9"/>
       <c r="D140" s="14"/>
       <c r="E140" s="13"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C141" s="9"/>
       <c r="D141" s="14"/>
       <c r="E141" s="13"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C142" s="9"/>
       <c r="D142" s="14"/>
       <c r="E142" s="13"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C143" s="9"/>
       <c r="D143" s="14"/>
       <c r="E143" s="13"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C144" s="9"/>
       <c r="D144" s="14"/>
       <c r="E144" s="13"/>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C145" s="9"/>
       <c r="D145" s="14"/>
       <c r="E145" s="13"/>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C146" s="9"/>
       <c r="D146" s="14"/>
       <c r="E146" s="13"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C147" s="9"/>
       <c r="D147" s="14"/>
       <c r="E147" s="13"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C148" s="9"/>
       <c r="D148" s="14"/>
       <c r="E148" s="13"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C149" s="9"/>
       <c r="D149" s="14"/>
       <c r="E149" s="13"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C150" s="9"/>
       <c r="D150" s="14"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C151" s="9"/>
       <c r="D151" s="14"/>
       <c r="E151" s="13"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C152" s="9"/>
       <c r="D152" s="14"/>
       <c r="E152" s="13"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C153" s="9"/>
       <c r="D153" s="14"/>
       <c r="E153" s="13"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C154" s="9"/>
       <c r="D154" s="14"/>
       <c r="E154" s="13"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C155" s="9"/>
       <c r="D155" s="14"/>
       <c r="E155" s="13"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C156" s="9"/>
       <c r="D156" s="14"/>
       <c r="E156" s="13"/>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C157" s="9"/>
       <c r="D157" s="14"/>
       <c r="E157" s="13"/>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C158" s="9"/>
       <c r="D158" s="14"/>
       <c r="E158" s="13"/>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C159" s="9"/>
       <c r="D159" s="14"/>
       <c r="E159" s="13"/>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C160" s="9"/>
       <c r="D160" s="14"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C161" s="9"/>
       <c r="D161" s="14"/>
       <c r="E161" s="13"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C162" s="9"/>
       <c r="D162" s="14"/>
       <c r="E162" s="13"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C163" s="9"/>
       <c r="D163" s="14"/>
       <c r="E163" s="13"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C164" s="9"/>
       <c r="D164" s="14"/>
       <c r="E164" s="13"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C165" s="9"/>
       <c r="D165" s="14"/>
       <c r="E165" s="13"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C166" s="9"/>
       <c r="D166" s="14"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C167" s="9"/>
       <c r="D167" s="14"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C168" s="9"/>
       <c r="D168" s="14"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C169" s="9"/>
       <c r="D169" s="14"/>
       <c r="E169" s="13"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C170" s="9"/>
       <c r="D170" s="14"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C171" s="9"/>
       <c r="D171" s="14"/>
       <c r="E171" s="13"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C172" s="9"/>
       <c r="D172" s="14"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C173" s="9"/>
       <c r="D173" s="14"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C174" s="9"/>
       <c r="D174" s="14"/>
       <c r="E174" s="13"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C175" s="9"/>
       <c r="D175" s="14"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C176" s="9"/>
       <c r="D176" s="14"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C177" s="9"/>
       <c r="D177" s="14"/>
       <c r="E177" s="13"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C178" s="9"/>
       <c r="D178" s="14"/>
       <c r="E178" s="13"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C179" s="9"/>
       <c r="D179" s="14"/>
       <c r="E179" s="13"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C180" s="9"/>
       <c r="D180" s="14"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C181" s="9"/>
       <c r="D181" s="14"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C182" s="9"/>
       <c r="D182" s="14"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C183" s="9"/>
       <c r="D183" s="14"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C184" s="9"/>
       <c r="D184" s="14"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C185" s="9"/>
       <c r="D185" s="14"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C186" s="9"/>
       <c r="D186" s="14"/>
       <c r="E186" s="13"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="9"/>
       <c r="D187" s="14"/>
       <c r="E187" s="13"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C188" s="9"/>
       <c r="D188" s="14"/>
       <c r="E188" s="13"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C189" s="9"/>
       <c r="D189" s="14"/>
       <c r="E189" s="13"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C190" s="9"/>
       <c r="D190" s="14"/>
       <c r="E190" s="13"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="9"/>
       <c r="D191" s="14"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C192" s="9"/>
       <c r="D192" s="14"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C193" s="9"/>
       <c r="D193" s="14"/>
       <c r="E193" s="13"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C194" s="9"/>
       <c r="D194" s="14"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C195" s="9"/>
       <c r="D195" s="14"/>
       <c r="E195" s="13"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C196" s="9"/>
       <c r="D196" s="14"/>
       <c r="E196" s="13"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C197" s="9"/>
       <c r="D197" s="14"/>
       <c r="E197" s="13"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C198" s="9"/>
       <c r="D198" s="14"/>
       <c r="E198" s="13"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C199" s="9"/>
       <c r="D199" s="14"/>
       <c r="E199" s="13"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C200" s="9"/>
       <c r="D200" s="14"/>
       <c r="E200" s="13"/>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C201" s="9"/>
       <c r="D201" s="14"/>
       <c r="E201" s="13"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C202" s="9"/>
       <c r="D202" s="14"/>
       <c r="E202" s="13"/>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C203" s="9"/>
       <c r="D203" s="14"/>
       <c r="E203" s="13"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C204" s="9"/>
       <c r="D204" s="14"/>
       <c r="E204" s="13"/>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C205" s="9"/>
       <c r="D205" s="14"/>
       <c r="E205" s="13"/>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C206" s="9"/>
       <c r="D206" s="14"/>
       <c r="E206" s="13"/>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C207" s="9"/>
       <c r="D207" s="14"/>
       <c r="E207" s="13"/>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C208" s="9"/>
       <c r="D208" s="14"/>
       <c r="E208" s="13"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="9"/>
       <c r="D209" s="14"/>
       <c r="E209" s="13"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" s="9"/>
       <c r="D210" s="14"/>
       <c r="E210" s="13"/>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" s="9"/>
       <c r="D211" s="14"/>
       <c r="E211" s="13"/>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C212" s="9"/>
       <c r="D212" s="14"/>
       <c r="E212" s="13"/>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C213" s="9"/>
       <c r="D213" s="14"/>
       <c r="E213" s="13"/>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" s="9"/>
       <c r="D214" s="14"/>
       <c r="E214" s="13"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C215" s="9"/>
       <c r="D215" s="14"/>
       <c r="E215" s="13"/>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C216" s="9"/>
       <c r="D216" s="14"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C217" s="9"/>
       <c r="D217" s="14"/>
       <c r="E217" s="13"/>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C218" s="9"/>
       <c r="D218" s="14"/>
       <c r="E218" s="13"/>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C219" s="9"/>
       <c r="D219" s="14"/>
       <c r="E219" s="13"/>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C220" s="9"/>
       <c r="D220" s="14"/>
       <c r="E220" s="13"/>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C221" s="9"/>
       <c r="D221" s="14"/>
       <c r="E221" s="13"/>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C222" s="9"/>
       <c r="D222" s="14"/>
       <c r="E222" s="13"/>
     </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C223" s="9"/>
       <c r="D223" s="14"/>
       <c r="E223" s="13"/>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C224" s="9"/>
       <c r="D224" s="14"/>
       <c r="E224" s="13"/>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C225" s="9"/>
       <c r="D225" s="14"/>
       <c r="E225" s="13"/>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C226" s="9"/>
       <c r="D226" s="14"/>
       <c r="E226" s="13"/>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C227" s="9"/>
       <c r="D227" s="14"/>
       <c r="E227" s="13"/>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C228" s="9"/>
       <c r="D228" s="14"/>
       <c r="E228" s="13"/>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C229" s="9"/>
       <c r="D229" s="14"/>
       <c r="E229" s="13"/>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="9"/>
       <c r="D230" s="14"/>
       <c r="E230" s="13"/>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="9"/>
       <c r="D231" s="14"/>
       <c r="E231" s="13"/>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="9"/>
       <c r="D232" s="14"/>
       <c r="E232" s="13"/>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C233" s="9"/>
       <c r="D233" s="14"/>
       <c r="E233" s="13"/>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C234" s="9"/>
       <c r="D234" s="14"/>
       <c r="E234" s="13"/>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C235" s="9"/>
       <c r="D235" s="14"/>
       <c r="E235" s="13"/>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C236" s="9"/>
       <c r="D236" s="14"/>
       <c r="E236" s="13"/>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="9"/>
       <c r="D237" s="14"/>
       <c r="E237" s="13"/>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C238" s="9"/>
       <c r="D238" s="14"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C239" s="9"/>
       <c r="D239" s="14"/>
       <c r="E239" s="13"/>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C240" s="9"/>
       <c r="D240" s="14"/>
       <c r="E240" s="13"/>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C241" s="9"/>
       <c r="D241" s="14"/>
       <c r="E241" s="13"/>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C242" s="9"/>
       <c r="D242" s="14"/>
       <c r="E242" s="13"/>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C243" s="9"/>
       <c r="D243" s="14"/>
       <c r="E243" s="13"/>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C244" s="9"/>
       <c r="D244" s="14"/>
       <c r="E244" s="13"/>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C245" s="9"/>
       <c r="D245" s="14"/>
       <c r="E245" s="13"/>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C246" s="9"/>
       <c r="D246" s="14"/>
       <c r="E246" s="13"/>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C247" s="9"/>
       <c r="D247" s="14"/>
       <c r="E247" s="13"/>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C248" s="9"/>
       <c r="D248" s="14"/>
       <c r="E248" s="13"/>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C249" s="9"/>
       <c r="D249" s="14"/>
       <c r="E249" s="13"/>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C250" s="9"/>
       <c r="D250" s="14"/>
       <c r="E250" s="13"/>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C251" s="9"/>
       <c r="D251" s="14"/>
       <c r="E251" s="13"/>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C252" s="9"/>
       <c r="D252" s="14"/>
       <c r="E252" s="13"/>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C253" s="9"/>
       <c r="D253" s="14"/>
       <c r="E253" s="13"/>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C254" s="9"/>
       <c r="D254" s="14"/>
       <c r="E254" s="13"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C255" s="9"/>
       <c r="D255" s="14"/>
       <c r="E255" s="13"/>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C256" s="9"/>
       <c r="D256" s="14"/>
       <c r="E256" s="13"/>
     </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C257" s="9"/>
       <c r="D257" s="14"/>
       <c r="E257" s="13"/>
     </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C258" s="9"/>
       <c r="D258" s="14"/>
       <c r="E258" s="13"/>
     </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C259" s="9"/>
       <c r="D259" s="14"/>
       <c r="E259" s="13"/>
     </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C260" s="9"/>
       <c r="D260" s="14"/>
       <c r="E260" s="13"/>
     </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C261" s="9"/>
       <c r="D261" s="14"/>
       <c r="E261" s="13"/>
     </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C262" s="9"/>
       <c r="D262" s="14"/>
       <c r="E262" s="13"/>
     </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C263" s="9"/>
       <c r="D263" s="14"/>
       <c r="E263" s="13"/>
     </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C264" s="9"/>
       <c r="D264" s="14"/>
       <c r="E264" s="13"/>
     </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C265" s="9"/>
       <c r="D265" s="14"/>
       <c r="E265" s="13"/>
     </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C266" s="9"/>
       <c r="D266" s="14"/>
       <c r="E266" s="13"/>
     </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C267" s="9"/>
       <c r="D267" s="14"/>
       <c r="E267" s="13"/>
     </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C268" s="9"/>
       <c r="D268" s="14"/>
       <c r="E268" s="13"/>
     </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C269" s="9"/>
       <c r="D269" s="14"/>
       <c r="E269" s="13"/>
     </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C270" s="9"/>
       <c r="D270" s="14"/>
       <c r="E270" s="13"/>
     </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C271" s="9"/>
       <c r="D271" s="14"/>
       <c r="E271" s="13"/>
     </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C272" s="9"/>
       <c r="D272" s="14"/>
       <c r="E272" s="13"/>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C273" s="9"/>
       <c r="D273" s="14"/>
       <c r="E273" s="13"/>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C274" s="9"/>
       <c r="D274" s="14"/>
       <c r="E274" s="13"/>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C275" s="9"/>
       <c r="D275" s="14"/>
       <c r="E275" s="13"/>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C276" s="9"/>
       <c r="D276" s="14"/>
       <c r="E276" s="13"/>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C277" s="9"/>
       <c r="D277" s="14"/>
       <c r="E277" s="13"/>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C278" s="9"/>
       <c r="D278" s="14"/>
       <c r="E278" s="13"/>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C279" s="9"/>
       <c r="D279" s="14"/>
       <c r="E279" s="13"/>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C280" s="9"/>
       <c r="D280" s="14"/>
       <c r="E280" s="13"/>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C281" s="9"/>
       <c r="D281" s="14"/>
       <c r="E281" s="13"/>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C282" s="9"/>
       <c r="D282" s="14"/>
       <c r="E282" s="13"/>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C283" s="9"/>
       <c r="D283" s="14"/>
       <c r="E283" s="13"/>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C284" s="9"/>
       <c r="D284" s="14"/>
       <c r="E284" s="13"/>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C285" s="9"/>
       <c r="D285" s="14"/>
       <c r="E285" s="13"/>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C286" s="9"/>
       <c r="D286" s="14"/>
       <c r="E286" s="13"/>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C287" s="9"/>
       <c r="D287" s="14"/>
       <c r="E287" s="13"/>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C288" s="9"/>
       <c r="D288" s="14"/>
       <c r="E288" s="13"/>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C289" s="9"/>
       <c r="D289" s="14"/>
       <c r="E289" s="13"/>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C290" s="9"/>
       <c r="D290" s="14"/>
       <c r="E290" s="13"/>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C291" s="9"/>
       <c r="D291" s="14"/>
       <c r="E291" s="13"/>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C292" s="9"/>
       <c r="D292" s="14"/>
       <c r="E292" s="13"/>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C293" s="9"/>
       <c r="D293" s="14"/>
       <c r="E293" s="13"/>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C294" s="9"/>
       <c r="D294" s="14"/>
       <c r="E294" s="13"/>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C295" s="9"/>
       <c r="D295" s="14"/>
       <c r="E295" s="13"/>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C296" s="9"/>
       <c r="D296" s="14"/>
       <c r="E296" s="13"/>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C297" s="9"/>
       <c r="D297" s="14"/>
       <c r="E297" s="13"/>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C298" s="9"/>
       <c r="D298" s="14"/>
       <c r="E298" s="13"/>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C299" s="9"/>
       <c r="D299" s="14"/>
       <c r="E299" s="13"/>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C300" s="9"/>
       <c r="D300" s="14"/>
       <c r="E300" s="13"/>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C301" s="9"/>
       <c r="D301" s="14"/>
       <c r="E301" s="13"/>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C302" s="9"/>
       <c r="D302" s="14"/>
       <c r="E302" s="13"/>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C303" s="9"/>
       <c r="D303" s="14"/>
       <c r="E303" s="13"/>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C304" s="9"/>
       <c r="D304" s="14"/>
       <c r="E304" s="13"/>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C305" s="9"/>
       <c r="D305" s="14"/>
       <c r="E305" s="13"/>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C306" s="9"/>
       <c r="D306" s="14"/>
       <c r="E306" s="13"/>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C307" s="9"/>
       <c r="D307" s="14"/>
       <c r="E307" s="13"/>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C308" s="9"/>
       <c r="D308" s="14"/>
       <c r="E308" s="13"/>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C309" s="9"/>
       <c r="D309" s="14"/>
       <c r="E309" s="13"/>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C310" s="9"/>
       <c r="D310" s="14"/>
       <c r="E310" s="13"/>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C311" s="9"/>
       <c r="D311" s="14"/>
       <c r="E311" s="13"/>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C312" s="9"/>
       <c r="D312" s="14"/>
       <c r="E312" s="13"/>
     </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C313" s="9"/>
       <c r="D313" s="14"/>
       <c r="E313" s="13"/>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C314" s="9"/>
       <c r="D314" s="14"/>
       <c r="E314" s="13"/>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C315" s="9"/>
       <c r="D315" s="14"/>
       <c r="E315" s="13"/>
     </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C316" s="9"/>
       <c r="D316" s="14"/>
       <c r="E316" s="13"/>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C317" s="9"/>
       <c r="D317" s="14"/>
       <c r="E317" s="13"/>
     </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C318" s="9"/>
       <c r="D318" s="14"/>
       <c r="E318" s="13"/>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C319" s="9"/>
       <c r="D319" s="14"/>
       <c r="E319" s="13"/>
     </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C320" s="9"/>
       <c r="D320" s="14"/>
       <c r="E320" s="13"/>
     </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C321" s="9"/>
       <c r="D321" s="14"/>
       <c r="E321" s="13"/>
     </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C322" s="9"/>
       <c r="D322" s="14"/>
       <c r="E322" s="13"/>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C323" s="9"/>
       <c r="D323" s="14"/>
       <c r="E323" s="13"/>
     </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C324" s="9"/>
       <c r="D324" s="14"/>
       <c r="E324" s="13"/>
     </row>
-    <row r="325" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C325" s="9"/>
       <c r="D325" s="14"/>
       <c r="E325" s="13"/>
     </row>
-    <row r="326" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C326" s="9"/>
       <c r="D326" s="14"/>
       <c r="E326" s="13"/>
     </row>
-    <row r="327" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C327" s="9"/>
       <c r="D327" s="14"/>
       <c r="E327" s="13"/>
     </row>
-    <row r="328" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C328" s="9"/>
       <c r="D328" s="14"/>
       <c r="E328" s="13"/>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C329" s="9"/>
       <c r="D329" s="14"/>
       <c r="E329" s="13"/>
     </row>
-    <row r="330" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C330" s="9"/>
       <c r="D330" s="14"/>
       <c r="E330" s="13"/>
     </row>
-    <row r="331" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C331" s="9"/>
       <c r="D331" s="14"/>
       <c r="E331" s="13"/>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C332" s="9"/>
       <c r="D332" s="14"/>
       <c r="E332" s="13"/>
     </row>
-    <row r="333" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C333" s="9"/>
       <c r="D333" s="14"/>
       <c r="E333" s="13"/>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C334" s="9"/>
       <c r="D334" s="14"/>
       <c r="E334" s="13"/>
     </row>
-    <row r="335" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C335" s="9"/>
       <c r="D335" s="14"/>
       <c r="E335" s="13"/>
     </row>
-    <row r="336" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C336" s="9"/>
       <c r="D336" s="14"/>
       <c r="E336" s="13"/>
     </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C337" s="9"/>
       <c r="D337" s="14"/>
       <c r="E337" s="13"/>
     </row>
-    <row r="338" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C338" s="9"/>
       <c r="D338" s="14"/>
       <c r="E338" s="13"/>
     </row>
-    <row r="339" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C339" s="9"/>
       <c r="D339" s="14"/>
       <c r="E339" s="13"/>
     </row>
-    <row r="340" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C340" s="9"/>
       <c r="D340" s="14"/>
       <c r="E340" s="13"/>
     </row>
-    <row r="341" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C341" s="9"/>
       <c r="D341" s="14"/>
       <c r="E341" s="13"/>
     </row>
-    <row r="342" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C342" s="9"/>
       <c r="D342" s="14"/>
       <c r="E342" s="13"/>
     </row>
-    <row r="343" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C343" s="9"/>
       <c r="D343" s="14"/>
       <c r="E343" s="13"/>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C344" s="9"/>
       <c r="D344" s="14"/>
       <c r="E344" s="13"/>
     </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C345" s="9"/>
       <c r="D345" s="14"/>
       <c r="E345" s="13"/>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C346" s="9"/>
       <c r="D346" s="14"/>
       <c r="E346" s="13"/>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C347" s="9"/>
       <c r="D347" s="14"/>
       <c r="E347" s="13"/>
     </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C348" s="9"/>
       <c r="D348" s="14"/>
       <c r="E348" s="13"/>
     </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C349" s="9"/>
       <c r="D349" s="14"/>
       <c r="E349" s="13"/>
     </row>
-    <row r="350" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C350" s="9"/>
       <c r="D350" s="14"/>
       <c r="E350" s="13"/>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C351" s="9"/>
       <c r="D351" s="14"/>
       <c r="E351" s="13"/>
     </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C352" s="9"/>
       <c r="D352" s="14"/>
       <c r="E352" s="13"/>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C353" s="9"/>
       <c r="D353" s="14"/>
       <c r="E353" s="13"/>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C354" s="9"/>
       <c r="D354" s="14"/>
       <c r="E354" s="13"/>
     </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C355" s="9"/>
       <c r="D355" s="14"/>
       <c r="E355" s="13"/>
     </row>
-    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C356" s="9"/>
       <c r="D356" s="14"/>
       <c r="E356" s="13"/>
     </row>
-    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C357" s="9"/>
       <c r="D357" s="14"/>
       <c r="E357" s="13"/>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C358" s="9"/>
       <c r="D358" s="14"/>
       <c r="E358" s="13"/>
     </row>
-    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C359" s="9"/>
       <c r="D359" s="14"/>
       <c r="E359" s="13"/>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C360" s="9"/>
       <c r="D360" s="14"/>
       <c r="E360" s="13"/>
     </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C361" s="9"/>
       <c r="D361" s="14"/>
       <c r="E361" s="13"/>
     </row>
-    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C362" s="9"/>
       <c r="D362" s="14"/>
       <c r="E362" s="13"/>
     </row>
-    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C363" s="9"/>
       <c r="D363" s="14"/>
       <c r="E363" s="13"/>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C364" s="9"/>
       <c r="D364" s="14"/>
       <c r="E364" s="13"/>
     </row>
-    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C365" s="9"/>
       <c r="D365" s="14"/>
       <c r="E365" s="13"/>
     </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C366" s="9"/>
       <c r="D366" s="14"/>
       <c r="E366" s="13"/>
     </row>
-    <row r="367" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C367" s="9"/>
       <c r="D367" s="14"/>
       <c r="E367" s="13"/>
     </row>
-    <row r="368" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C368" s="9"/>
       <c r="D368" s="14"/>
       <c r="E368" s="13"/>
     </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C369" s="9"/>
       <c r="D369" s="14"/>
       <c r="E369" s="13"/>
     </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C370" s="9"/>
       <c r="D370" s="14"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C371" s="9"/>
       <c r="D371" s="14"/>
       <c r="E371" s="13"/>
     </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C372" s="9"/>
       <c r="D372" s="14"/>
       <c r="E372" s="13"/>
     </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C373" s="9"/>
       <c r="D373" s="14"/>
       <c r="E373" s="13"/>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C374" s="9"/>
       <c r="D374" s="14"/>
       <c r="E374" s="13"/>
     </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C375" s="9"/>
       <c r="D375" s="14"/>
       <c r="E375" s="13"/>
     </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C376" s="9"/>
       <c r="D376" s="14"/>
       <c r="E376" s="13"/>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C377" s="9"/>
       <c r="D377" s="14"/>
       <c r="E377" s="13"/>
     </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C378" s="9"/>
       <c r="D378" s="14"/>
       <c r="E378" s="13"/>
     </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C379" s="9"/>
       <c r="D379" s="14"/>
       <c r="E379" s="13"/>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C380" s="9"/>
       <c r="D380" s="14"/>
       <c r="E380" s="13"/>
     </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C381" s="9"/>
       <c r="D381" s="14"/>
       <c r="E381" s="13"/>
     </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C382" s="9"/>
       <c r="D382" s="14"/>
       <c r="E382" s="13"/>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C383" s="9"/>
       <c r="D383" s="14"/>
       <c r="E383" s="13"/>
     </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C384" s="9"/>
       <c r="D384" s="14"/>
       <c r="E384" s="13"/>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C385" s="9"/>
       <c r="D385" s="14"/>
       <c r="E385" s="13"/>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C386" s="9"/>
       <c r="D386" s="14"/>
       <c r="E386" s="13"/>
     </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C387" s="9"/>
       <c r="D387" s="14"/>
       <c r="E387" s="13"/>
     </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C388" s="9"/>
       <c r="D388" s="14"/>
       <c r="E388" s="13"/>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C389" s="9"/>
       <c r="D389" s="14"/>
       <c r="E389" s="13"/>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C390" s="9"/>
       <c r="D390" s="14"/>
       <c r="E390" s="13"/>
     </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C391" s="9"/>
       <c r="D391" s="14"/>
       <c r="E391" s="13"/>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C392" s="9"/>
       <c r="D392" s="14"/>
       <c r="E392" s="13"/>
     </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C393" s="9"/>
       <c r="D393" s="14"/>
       <c r="E393" s="13"/>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C394" s="9"/>
       <c r="D394" s="14"/>
       <c r="E394" s="13"/>
     </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C395" s="9"/>
       <c r="D395" s="14"/>
       <c r="E395" s="13"/>
     </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C396" s="9"/>
       <c r="D396" s="14"/>
       <c r="E396" s="13"/>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C397" s="9"/>
       <c r="D397" s="14"/>
       <c r="E397" s="13"/>
     </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C398" s="9"/>
       <c r="D398" s="14"/>
       <c r="E398" s="13"/>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C399" s="9"/>
       <c r="D399" s="14"/>
       <c r="E399" s="13"/>
     </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C400" s="9"/>
       <c r="D400" s="14"/>
       <c r="E400" s="13"/>
     </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C401" s="9"/>
       <c r="D401" s="14"/>
       <c r="E401" s="13"/>
     </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C402" s="9"/>
       <c r="D402" s="14"/>
       <c r="E402" s="13"/>
     </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C403" s="9"/>
       <c r="D403" s="14"/>
       <c r="E403" s="13"/>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C404" s="9"/>
       <c r="D404" s="14"/>
       <c r="E404" s="13"/>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C405" s="9"/>
       <c r="D405" s="14"/>
       <c r="E405" s="13"/>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C406" s="9"/>
       <c r="D406" s="14"/>
       <c r="E406" s="13"/>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C407" s="9"/>
       <c r="D407" s="14"/>
       <c r="E407" s="13"/>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C408" s="9"/>
       <c r="D408" s="14"/>
       <c r="E408" s="13"/>
     </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C409" s="9"/>
       <c r="D409" s="14"/>
       <c r="E409" s="13"/>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C410" s="9"/>
       <c r="D410" s="14"/>
       <c r="E410" s="13"/>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C411" s="9"/>
       <c r="D411" s="14"/>
       <c r="E411" s="13"/>
     </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C412" s="9"/>
       <c r="D412" s="14"/>
       <c r="E412" s="13"/>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C413" s="9"/>
       <c r="D413" s="14"/>
       <c r="E413" s="13"/>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C414" s="9"/>
       <c r="D414" s="14"/>
       <c r="E414" s="13"/>
     </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C415" s="9"/>
       <c r="D415" s="14"/>
       <c r="E415" s="13"/>
     </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C416" s="9"/>
       <c r="D416" s="14"/>
       <c r="E416" s="13"/>
     </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C417" s="9"/>
       <c r="D417" s="14"/>
       <c r="E417" s="13"/>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C418" s="9"/>
       <c r="D418" s="14"/>
       <c r="E418" s="13"/>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C419" s="9"/>
       <c r="D419" s="14"/>
       <c r="E419" s="13"/>
     </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C420" s="9"/>
       <c r="D420" s="14"/>
       <c r="E420" s="13"/>
     </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C421" s="9"/>
       <c r="D421" s="14"/>
       <c r="E421" s="13"/>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C422" s="9"/>
       <c r="D422" s="14"/>
       <c r="E422" s="13"/>
     </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C423" s="9"/>
       <c r="D423" s="14"/>
       <c r="E423" s="13"/>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C424" s="9"/>
       <c r="D424" s="14"/>
       <c r="E424" s="13"/>
     </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C425" s="9"/>
       <c r="D425" s="14"/>
       <c r="E425" s="13"/>
     </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C426" s="9"/>
       <c r="D426" s="14"/>
       <c r="E426" s="13"/>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C427" s="9"/>
       <c r="D427" s="14"/>
       <c r="E427" s="13"/>
     </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C428" s="9"/>
       <c r="D428" s="14"/>
       <c r="E428" s="13"/>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C429" s="9"/>
       <c r="D429" s="14"/>
       <c r="E429" s="13"/>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C430" s="9"/>
       <c r="D430" s="14"/>
       <c r="E430" s="13"/>
     </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C431" s="9"/>
       <c r="D431" s="14"/>
       <c r="E431" s="13"/>
     </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C432" s="9"/>
       <c r="D432" s="14"/>
       <c r="E432" s="13"/>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C433" s="9"/>
       <c r="D433" s="14"/>
       <c r="E433" s="13"/>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C434" s="9"/>
       <c r="D434" s="14"/>
       <c r="E434" s="13"/>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C435" s="9"/>
       <c r="D435" s="14"/>
       <c r="E435" s="13"/>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C436" s="9"/>
       <c r="D436" s="14"/>
       <c r="E436" s="13"/>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C437" s="9"/>
       <c r="D437" s="14"/>
       <c r="E437" s="13"/>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C438" s="9"/>
       <c r="D438" s="14"/>
       <c r="E438" s="13"/>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C439" s="9"/>
       <c r="D439" s="14"/>
       <c r="E439" s="13"/>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C440" s="9"/>
       <c r="D440" s="14"/>
       <c r="E440" s="13"/>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C441" s="9"/>
       <c r="D441" s="14"/>
       <c r="E441" s="13"/>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C442" s="9"/>
       <c r="D442" s="14"/>
       <c r="E442" s="13"/>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C443" s="9"/>
       <c r="D443" s="14"/>
       <c r="E443" s="13"/>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C444" s="9"/>
       <c r="D444" s="14"/>
       <c r="E444" s="13"/>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C445" s="9"/>
       <c r="D445" s="14"/>
       <c r="E445" s="13"/>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C446" s="9"/>
       <c r="D446" s="14"/>
       <c r="E446" s="13"/>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C447" s="9"/>
       <c r="D447" s="14"/>
       <c r="E447" s="13"/>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C448" s="9"/>
       <c r="D448" s="14"/>
       <c r="E448" s="13"/>
     </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C449" s="9"/>
       <c r="D449" s="14"/>
       <c r="E449" s="13"/>
     </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C450" s="9"/>
       <c r="D450" s="14"/>
       <c r="E450" s="13"/>
     </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C451" s="9"/>
       <c r="D451" s="14"/>
       <c r="E451" s="13"/>
     </row>
-    <row r="452" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C452" s="9"/>
       <c r="D452" s="14"/>
       <c r="E452" s="13"/>
     </row>
-    <row r="453" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C453" s="9"/>
       <c r="D453" s="14"/>
       <c r="E453" s="13"/>
     </row>
-    <row r="454" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C454" s="9"/>
       <c r="D454" s="14"/>
       <c r="E454" s="13"/>
     </row>
-    <row r="455" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C455" s="9"/>
       <c r="D455" s="14"/>
       <c r="E455" s="13"/>
     </row>
-    <row r="456" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C456" s="9"/>
       <c r="D456" s="14"/>
       <c r="E456" s="13"/>
     </row>
-    <row r="457" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C457" s="9"/>
       <c r="D457" s="14"/>
       <c r="E457" s="13"/>
     </row>
-    <row r="458" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C458" s="9"/>
       <c r="D458" s="14"/>
       <c r="E458" s="13"/>
     </row>
-    <row r="459" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C459" s="9"/>
       <c r="D459" s="14"/>
       <c r="E459" s="13"/>
     </row>
-    <row r="460" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C460" s="9"/>
       <c r="D460" s="14"/>
       <c r="E460" s="13"/>
     </row>
-    <row r="461" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C461" s="9"/>
       <c r="D461" s="14"/>
       <c r="E461" s="13"/>
     </row>
-    <row r="462" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C462" s="9"/>
       <c r="D462" s="14"/>
       <c r="E462" s="13"/>
     </row>
-    <row r="463" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C463" s="9"/>
       <c r="D463" s="14"/>
       <c r="E463" s="13"/>
     </row>
-    <row r="464" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C464" s="9"/>
       <c r="D464" s="14"/>
       <c r="E464" s="13"/>
     </row>
-    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C465" s="9"/>
       <c r="D465" s="14"/>
       <c r="E465" s="13"/>
     </row>
-    <row r="466" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C466" s="9"/>
       <c r="D466" s="14"/>
       <c r="E466" s="13"/>
     </row>
-    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C467" s="9"/>
       <c r="D467" s="14"/>
       <c r="E467" s="13"/>
     </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C468" s="9"/>
       <c r="D468" s="14"/>
       <c r="E468" s="13"/>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C469" s="9"/>
       <c r="D469" s="14"/>
       <c r="E469" s="13"/>
     </row>
-    <row r="470" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C470" s="9"/>
       <c r="D470" s="14"/>
       <c r="E470" s="13"/>
     </row>
-    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C471" s="9"/>
       <c r="D471" s="14"/>
       <c r="E471" s="13"/>
     </row>
-    <row r="472" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C472" s="9"/>
       <c r="D472" s="14"/>
       <c r="E472" s="13"/>
     </row>
-    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C473" s="9"/>
       <c r="D473" s="14"/>
       <c r="E473" s="13"/>
     </row>
-    <row r="474" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C474" s="9"/>
       <c r="D474" s="14"/>
       <c r="E474" s="13"/>
     </row>
-    <row r="475" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C475" s="9"/>
       <c r="D475" s="14"/>
       <c r="E475" s="13"/>
     </row>
-    <row r="476" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C476" s="9"/>
       <c r="D476" s="14"/>
       <c r="E476" s="13"/>
     </row>
-    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C477" s="9"/>
       <c r="D477" s="14"/>
       <c r="E477" s="13"/>
     </row>
-    <row r="478" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C478" s="9"/>
       <c r="D478" s="14"/>
       <c r="E478" s="13"/>
     </row>
-    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C479" s="9"/>
       <c r="D479" s="14"/>
       <c r="E479" s="13"/>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C480" s="9"/>
       <c r="D480" s="14"/>
       <c r="E480" s="13"/>
     </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C481" s="9"/>
       <c r="D481" s="14"/>
       <c r="E481" s="13"/>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C482" s="9"/>
       <c r="D482" s="14"/>
       <c r="E482" s="13"/>
     </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C483" s="9"/>
       <c r="D483" s="14"/>
       <c r="E483" s="13"/>
     </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C484" s="9"/>
       <c r="D484" s="14"/>
       <c r="E484" s="13"/>
     </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C485" s="9"/>
       <c r="D485" s="14"/>
       <c r="E485" s="13"/>
     </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C486" s="9"/>
       <c r="D486" s="14"/>
       <c r="E486" s="13"/>
     </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C487" s="9"/>
       <c r="D487" s="14"/>
       <c r="E487" s="13"/>
     </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C488" s="9"/>
       <c r="D488" s="14"/>
       <c r="E488" s="13"/>
     </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C489" s="9"/>
       <c r="D489" s="14"/>
       <c r="E489" s="13"/>
     </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C490" s="9"/>
       <c r="D490" s="14"/>
       <c r="E490" s="13"/>
     </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C491" s="9"/>
       <c r="D491" s="14"/>
       <c r="E491" s="13"/>
     </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C492" s="9"/>
       <c r="D492" s="14"/>
       <c r="E492" s="13"/>
     </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C493" s="9"/>
       <c r="D493" s="14"/>
       <c r="E493" s="13"/>
     </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C494" s="9"/>
       <c r="D494" s="14"/>
       <c r="E494" s="13"/>
     </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C495" s="9"/>
       <c r="D495" s="14"/>
       <c r="E495" s="13"/>
     </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C496" s="9"/>
       <c r="D496" s="14"/>
       <c r="E496" s="13"/>
     </row>
-    <row r="497" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C497" s="9"/>
       <c r="D497" s="14"/>
       <c r="E497" s="13"/>
     </row>
-    <row r="498" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C498" s="9"/>
       <c r="D498" s="14"/>
       <c r="E498" s="13"/>
     </row>
-    <row r="499" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C499" s="9"/>
       <c r="D499" s="14"/>
       <c r="E499" s="13"/>
     </row>
-    <row r="500" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C500" s="9"/>
       <c r="D500" s="14"/>
       <c r="E500" s="13"/>
     </row>
-    <row r="501" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C501" s="9"/>
       <c r="D501" s="14"/>
       <c r="E501" s="13"/>
     </row>
-    <row r="502" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C502" s="9"/>
       <c r="D502" s="14"/>
       <c r="E502" s="13"/>
     </row>
-    <row r="503" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C503" s="9"/>
       <c r="D503" s="14"/>
       <c r="E503" s="13"/>
     </row>
-    <row r="504" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C504" s="9"/>
       <c r="D504" s="14"/>
       <c r="E504" s="13"/>
     </row>
-    <row r="505" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C505" s="9"/>
       <c r="D505" s="14"/>
       <c r="E505" s="13"/>
     </row>
-    <row r="506" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C506" s="9"/>
       <c r="D506" s="14"/>
       <c r="E506" s="13"/>
     </row>
-    <row r="507" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C507" s="9"/>
       <c r="D507" s="14"/>
       <c r="E507" s="13"/>
     </row>
-    <row r="508" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C508" s="9"/>
       <c r="D508" s="14"/>
       <c r="E508" s="13"/>
     </row>
-    <row r="509" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C509" s="9"/>
       <c r="D509" s="14"/>
       <c r="E509" s="13"/>
     </row>
-    <row r="510" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C510" s="9"/>
       <c r="D510" s="14"/>
       <c r="E510" s="13"/>
     </row>
-    <row r="511" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C511" s="9"/>
       <c r="D511" s="14"/>
       <c r="E511" s="13"/>
     </row>
-    <row r="512" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C512" s="9"/>
       <c r="D512" s="14"/>
       <c r="E512" s="13"/>
     </row>
-    <row r="513" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C513" s="9"/>
       <c r="D513" s="14"/>
       <c r="E513" s="13"/>
     </row>
-    <row r="514" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C514" s="9"/>
       <c r="D514" s="14"/>
       <c r="E514" s="13"/>
     </row>
-    <row r="515" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C515" s="9"/>
       <c r="D515" s="14"/>
       <c r="E515" s="13"/>
     </row>
-    <row r="516" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C516" s="9"/>
       <c r="D516" s="14"/>
       <c r="E516" s="13"/>
     </row>
-    <row r="517" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C517" s="9"/>
       <c r="D517" s="14"/>
       <c r="E517" s="13"/>
     </row>
-    <row r="518" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C518" s="9"/>
       <c r="D518" s="14"/>
       <c r="E518" s="13"/>
     </row>
-    <row r="519" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C519" s="9"/>
       <c r="D519" s="14"/>
       <c r="E519" s="13"/>
     </row>
-    <row r="520" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C520" s="9"/>
       <c r="D520" s="14"/>
       <c r="E520" s="13"/>
     </row>
-    <row r="521" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C521" s="9"/>
       <c r="D521" s="14"/>
       <c r="E521" s="13"/>
     </row>
-    <row r="522" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C522" s="9"/>
       <c r="D522" s="14"/>
       <c r="E522" s="13"/>
     </row>
-    <row r="523" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C523" s="9"/>
       <c r="D523" s="14"/>
       <c r="E523" s="13"/>
     </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C524" s="9"/>
       <c r="D524" s="14"/>
       <c r="E524" s="13"/>
     </row>
-    <row r="525" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C525" s="9"/>
       <c r="D525" s="14"/>
       <c r="E525" s="13"/>
     </row>
-    <row r="526" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C526" s="9"/>
       <c r="D526" s="14"/>
       <c r="E526" s="13"/>
     </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C527" s="9"/>
       <c r="D527" s="14"/>
       <c r="E527" s="13"/>
     </row>
-    <row r="528" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C528" s="9"/>
       <c r="D528" s="14"/>
       <c r="E528" s="13"/>
     </row>
-    <row r="529" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C529" s="9"/>
       <c r="D529" s="14"/>
       <c r="E529" s="13"/>
     </row>
-    <row r="530" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C530" s="9"/>
       <c r="D530" s="14"/>
       <c r="E530" s="13"/>
     </row>
-    <row r="531" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C531" s="9"/>
       <c r="D531" s="14"/>
       <c r="E531" s="13"/>
     </row>
-    <row r="532" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C532" s="9"/>
       <c r="D532" s="14"/>
       <c r="E532" s="13"/>
     </row>
-    <row r="533" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C533" s="9"/>
       <c r="D533" s="14"/>
       <c r="E533" s="13"/>
     </row>
-    <row r="534" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C534" s="9"/>
       <c r="D534" s="14"/>
       <c r="E534" s="13"/>
     </row>
-    <row r="535" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C535" s="9"/>
       <c r="D535" s="14"/>
       <c r="E535" s="13"/>
     </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C536" s="9"/>
       <c r="D536" s="14"/>
       <c r="E536" s="13"/>
     </row>
-    <row r="537" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C537" s="9"/>
       <c r="D537" s="14"/>
       <c r="E537" s="13"/>
     </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C538" s="9"/>
       <c r="D538" s="14"/>
       <c r="E538" s="13"/>
     </row>
-    <row r="539" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C539" s="9"/>
       <c r="D539" s="14"/>
       <c r="E539" s="13"/>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C540" s="9"/>
       <c r="D540" s="14"/>
       <c r="E540" s="13"/>
     </row>
-    <row r="541" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C541" s="9"/>
       <c r="D541" s="14"/>
       <c r="E541" s="13"/>
     </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C542" s="9"/>
       <c r="D542" s="14"/>
       <c r="E542" s="13"/>
     </row>
-    <row r="543" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C543" s="9"/>
       <c r="D543" s="14"/>
       <c r="E543" s="13"/>
     </row>
-    <row r="544" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C544" s="9"/>
       <c r="D544" s="14"/>
       <c r="E544" s="13"/>
     </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C545" s="9"/>
       <c r="D545" s="14"/>
       <c r="E545" s="13"/>
     </row>
-    <row r="546" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C546" s="9"/>
       <c r="D546" s="14"/>
       <c r="E546" s="13"/>
     </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C547" s="9"/>
       <c r="D547" s="14"/>
       <c r="E547" s="13"/>
     </row>
-    <row r="548" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C548" s="9"/>
       <c r="D548" s="14"/>
       <c r="E548" s="13"/>
     </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C549" s="9"/>
       <c r="D549" s="14"/>
       <c r="E549" s="13"/>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C550" s="9"/>
       <c r="D550" s="14"/>
       <c r="E550" s="13"/>
     </row>
-    <row r="551" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C551" s="9"/>
       <c r="D551" s="14"/>
       <c r="E551" s="13"/>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C552" s="9"/>
       <c r="D552" s="14"/>
       <c r="E552" s="13"/>
     </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C553" s="9"/>
       <c r="D553" s="14"/>
       <c r="E553" s="13"/>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C554" s="9"/>
       <c r="D554" s="14"/>
       <c r="E554" s="13"/>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C555" s="9"/>
       <c r="D555" s="14"/>
       <c r="E555" s="13"/>
     </row>
-    <row r="556" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C556" s="9"/>
       <c r="D556" s="14"/>
       <c r="E556" s="13"/>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C557" s="9"/>
       <c r="D557" s="14"/>
       <c r="E557" s="13"/>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C558" s="9"/>
       <c r="D558" s="14"/>
       <c r="E558" s="13"/>
     </row>
-    <row r="559" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C559" s="9"/>
       <c r="D559" s="14"/>
       <c r="E559" s="13"/>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C560" s="9"/>
       <c r="D560" s="14"/>
       <c r="E560" s="13"/>
     </row>
-    <row r="561" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C561" s="9"/>
       <c r="D561" s="14"/>
       <c r="E561" s="13"/>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C562" s="9"/>
       <c r="D562" s="14"/>
       <c r="E562" s="13"/>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C563" s="9"/>
       <c r="D563" s="14"/>
       <c r="E563" s="13"/>
     </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C564" s="9"/>
       <c r="D564" s="14"/>
       <c r="E564" s="13"/>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C565" s="9"/>
       <c r="D565" s="14"/>
       <c r="E565" s="13"/>
     </row>
-    <row r="566" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C566" s="9"/>
       <c r="D566" s="14"/>
       <c r="E566" s="13"/>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C567" s="9"/>
       <c r="D567" s="14"/>
       <c r="E567" s="13"/>
     </row>
-    <row r="568" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C568" s="9"/>
       <c r="D568" s="14"/>
       <c r="E568" s="13"/>
     </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C569" s="9"/>
       <c r="D569" s="14"/>
       <c r="E569" s="13"/>
     </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C570" s="9"/>
       <c r="D570" s="14"/>
       <c r="E570" s="13"/>
     </row>
-    <row r="571" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C571" s="9"/>
       <c r="D571" s="14"/>
       <c r="E571" s="13"/>
     </row>
-    <row r="572" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C572" s="9"/>
       <c r="D572" s="14"/>
       <c r="E572" s="13"/>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C573" s="9"/>
       <c r="D573" s="14"/>
       <c r="E573" s="13"/>
     </row>
-    <row r="574" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C574" s="9"/>
       <c r="D574" s="14"/>
       <c r="E574" s="13"/>
     </row>
-    <row r="575" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C575" s="9"/>
       <c r="D575" s="14"/>
       <c r="E575" s="13"/>
     </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C576" s="9"/>
       <c r="D576" s="14"/>
       <c r="E576" s="13"/>
     </row>
-    <row r="577" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C577" s="9"/>
       <c r="D577" s="14"/>
       <c r="E577" s="13"/>
     </row>
-    <row r="578" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C578" s="9"/>
       <c r="D578" s="14"/>
       <c r="E578" s="13"/>
     </row>
-    <row r="579" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C579" s="9"/>
       <c r="D579" s="14"/>
       <c r="E579" s="13"/>
     </row>
-    <row r="580" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C580" s="9"/>
       <c r="D580" s="14"/>
       <c r="E580" s="13"/>
     </row>
-    <row r="581" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C581" s="9"/>
       <c r="D581" s="14"/>
       <c r="E581" s="13"/>
     </row>
-    <row r="582" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C582" s="9"/>
       <c r="D582" s="14"/>
       <c r="E582" s="13"/>
     </row>
-    <row r="583" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C583" s="9"/>
       <c r="D583" s="14"/>
       <c r="E583" s="13"/>
     </row>
-    <row r="584" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D584" s="14"/>
     </row>
   </sheetData>
@@ -6794,14 +6803,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="12.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="13" width="12.6640625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
@@ -6842,7 +6851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>11</v>
       </c>
@@ -6888,7 +6897,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>12</v>
       </c>
@@ -6934,7 +6943,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>22</v>
       </c>
@@ -6980,7 +6989,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>23</v>
       </c>
@@ -7026,7 +7035,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>111</v>
       </c>
@@ -7072,7 +7081,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -7118,7 +7127,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -7164,7 +7173,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -7210,7 +7219,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -7256,7 +7265,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>61</v>
       </c>
@@ -7302,7 +7311,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -7348,7 +7357,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -7394,7 +7403,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -7440,7 +7449,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7460,7 +7469,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="7"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -7472,7 +7481,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17"/>
       <c r="D17" s="7"/>
       <c r="E17"/>
@@ -7486,7 +7495,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18"/>
       <c r="D18" s="7"/>
       <c r="E18"/>
@@ -7500,7 +7509,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19"/>
       <c r="D19" s="7"/>
       <c r="E19"/>
@@ -7514,7 +7523,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20"/>
       <c r="D20" s="7"/>
       <c r="E20"/>
@@ -7528,7 +7537,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21"/>
       <c r="D21" s="7"/>
       <c r="E21"/>
@@ -7539,7 +7548,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22"/>
       <c r="D22" s="7"/>
       <c r="E22"/>
@@ -7550,7 +7559,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23"/>
       <c r="D23" s="7"/>
       <c r="E23"/>
@@ -7561,7 +7570,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24"/>
       <c r="D24" s="7"/>
       <c r="E24"/>
@@ -7572,7 +7581,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25"/>
       <c r="D25" s="7"/>
       <c r="E25"/>
@@ -7583,7 +7592,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26"/>
       <c r="D26" s="7"/>
       <c r="E26"/>
@@ -7594,7 +7603,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27"/>
       <c r="D27" s="7"/>
       <c r="E27"/>
@@ -7605,7 +7614,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28"/>
       <c r="D28" s="7"/>
       <c r="E28"/>
@@ -7616,7 +7625,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -7627,7 +7636,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -7638,7 +7647,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -7648,7 +7657,7 @@
       <c r="I31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -7658,7 +7667,7 @@
       <c r="I32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -7670,7 +7679,7 @@
       <c r="I33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -7681,7 +7690,7 @@
       <c r="H34"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -7692,7 +7701,7 @@
       <c r="H35"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -7703,7 +7712,7 @@
       <c r="H36"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -7714,7 +7723,7 @@
       <c r="H37"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -7725,7 +7734,7 @@
       <c r="H38"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -7734,7 +7743,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -7743,7 +7752,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -7752,7 +7761,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -7761,7 +7770,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7770,7 +7779,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7779,7 +7788,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -7788,7 +7797,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -7797,7 +7806,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -7806,7 +7815,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7815,7 +7824,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -7824,7 +7833,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -7833,7 +7842,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -7842,7 +7851,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -7851,69 +7860,69 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7930,13 +7939,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.28515625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="8" width="8.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -7962,7 +7971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -7984,7 +7993,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -8006,7 +8015,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -8028,7 +8037,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -8050,7 +8059,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -8076,7 +8085,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -8106,7 +8115,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -8132,7 +8141,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -8162,7 +8171,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -8188,7 +8197,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -8218,7 +8227,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -8244,7 +8253,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -8270,7 +8279,7 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -8310,12 +8319,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -8347,7 +8356,7 @@
       <c r="M1"/>
       <c r="N1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -8365,7 +8374,7 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -8387,7 +8396,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.5</v>
       </c>
@@ -8409,7 +8418,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>0.5</v>
       </c>
@@ -8433,7 +8442,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -8453,7 +8462,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -8475,7 +8484,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -8501,7 +8510,7 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -8531,7 +8540,7 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -8557,7 +8566,7 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -8587,7 +8596,7 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -8613,7 +8622,7 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -8642,7 +8651,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -8687,15 +8696,15 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="12.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="13.42578125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="12" width="12.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16" width="9.109375" style="3"/>
+    <col min="17" max="17" width="13.44140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -8738,7 +8747,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>3.6</v>
       </c>
@@ -8765,7 +8774,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>3.6</v>
       </c>
@@ -8792,7 +8801,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -8819,7 +8828,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>0.8</v>
       </c>
@@ -8846,7 +8855,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>3.2</v>
       </c>
@@ -8881,7 +8890,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>3.6</v>
       </c>
@@ -8924,7 +8933,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>4.5</v>
       </c>
@@ -8959,7 +8968,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>3.6</v>
       </c>
@@ -9002,7 +9011,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>3.6</v>
       </c>
@@ -9037,7 +9046,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>3.6</v>
       </c>
@@ -9080,7 +9089,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>3.2</v>
       </c>
@@ -9115,7 +9124,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>3.2</v>
       </c>
@@ -9150,7 +9159,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>2.4</v>
       </c>
@@ -9185,14 +9194,14 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
@@ -9216,12 +9225,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -9241,7 +9250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -9253,7 +9262,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -9267,7 +9276,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1.5</v>
       </c>
@@ -9283,7 +9292,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1.5</v>
       </c>
@@ -9301,7 +9310,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -9315,7 +9324,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -9331,7 +9340,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -9347,7 +9356,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -9365,7 +9374,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -9383,7 +9392,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -9401,7 +9410,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -9417,7 +9426,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -9435,7 +9444,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -9469,12 +9478,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -9488,7 +9497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.1</v>
       </c>
@@ -9502,7 +9511,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>15</v>
       </c>
@@ -9516,7 +9525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2.93</v>
       </c>
@@ -9530,7 +9539,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>10.8</v>
       </c>
